--- a/Office/TeamHub详细设计-通知栏控件.xlsx
+++ b/Office/TeamHub详细设计-通知栏控件.xlsx
@@ -1079,6 +1079,136 @@
             </a:rPr>
             <a:t>查看消息</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="4305300"/>
+          <a:ext cx="5162550" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="5143500"/>
+          <a:ext cx="971550" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kernel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1377,7 +1507,7 @@
   <dimension ref="C3:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL9" sqref="BL9"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
